--- a/results/I3_N5_M3_T15_C100_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M3_T15_C100_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384127535</v>
+        <v>442.3346384127426</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>687.1200000000108</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.41</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>76.51000000000066</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>75.92500000000065</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>89.27500000000066</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.56500000000065</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>78.53000000000065</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>115.8900000000004</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>122.2200000000004</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>120.1800000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>116.5450000000004</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>117.8800000000004</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>135.9800000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>143.4300000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>148.2900000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>153.45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>147.0200000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89499999999971</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.6849999999997</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000001</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000001</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>135.9800000000007</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>143.4300000000007</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>148.2900000000007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>153.45</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>147.0200000000007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>115.8900000000004</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>122.2200000000004</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>120.1800000000004</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>116.5450000000004</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>117.8800000000004</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>7.995000000000083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.510000000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.665000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.505000000000077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>35.98000000000073</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1615,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>43.43000000000075</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>48.29000000000073</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.44999999999999</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1648,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>47.02000000000072</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>15.89000000000044</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>22.22000000000044</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.18000000000043</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>16.54500000000041</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>17.88000000000044</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2102,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2110,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2121,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2157,53 +2157,9 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
